--- a/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,109 +22,175 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
     <t>004010</t>
   </si>
   <si>
+    <t>001247</t>
+  </si>
+  <si>
+    <t>002456</t>
+  </si>
+  <si>
+    <t>009927</t>
+  </si>
+  <si>
+    <t>002457</t>
+  </si>
+  <si>
+    <t>008356</t>
+  </si>
+  <si>
+    <t>002091</t>
+  </si>
+  <si>
+    <t>000590</t>
+  </si>
+  <si>
     <t>004011</t>
   </si>
   <si>
-    <t>009927</t>
-  </si>
-  <si>
     <t>009928</t>
   </si>
   <si>
-    <t>002456</t>
-  </si>
-  <si>
-    <t>002457</t>
-  </si>
-  <si>
-    <t>000590</t>
-  </si>
-  <si>
-    <t>001247</t>
-  </si>
-  <si>
-    <t>002091</t>
-  </si>
-  <si>
-    <t>008356</t>
-  </si>
-  <si>
     <t>华泰柏瑞鼎利灵活配置混合A</t>
   </si>
   <si>
+    <t>华泰柏瑞新利灵活配置混合A</t>
+  </si>
+  <si>
+    <t>招商安元灵活配置混合A</t>
+  </si>
+  <si>
+    <t>工银瑞信聚利18个月定期开放混合A</t>
+  </si>
+  <si>
+    <t>招商安元灵活配置混合C</t>
+  </si>
+  <si>
+    <t>中加科丰价值精选混合</t>
+  </si>
+  <si>
+    <t>华泰柏瑞新利灵活配置混合C</t>
+  </si>
+  <si>
+    <t>华安新活力灵活配置混合</t>
+  </si>
+  <si>
     <t>华泰柏瑞鼎利灵活配置混合C</t>
   </si>
   <si>
-    <t>工银瑞信聚利18个月定期开放混合A</t>
-  </si>
-  <si>
     <t>工银瑞信聚利18个月定期开放混合C</t>
   </si>
   <si>
-    <t>招商安元灵活配置混合A</t>
-  </si>
-  <si>
-    <t>招商安元灵活配置混合C</t>
-  </si>
-  <si>
-    <t>华安新活力灵活配置混合</t>
-  </si>
-  <si>
-    <t>华泰柏瑞新利灵活配置混合A</t>
-  </si>
-  <si>
-    <t>华泰柏瑞新利灵活配置混合C</t>
-  </si>
-  <si>
-    <t>中加科丰价值精选混合</t>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>5.89</t>
+  </si>
+  <si>
+    <t>5.33</t>
+  </si>
+  <si>
+    <t>3.98</t>
+  </si>
+  <si>
+    <t>5.48</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>7.72</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>0.81</t>
   </si>
   <si>
     <t>22.94</t>
   </si>
   <si>
+    <t>23.71</t>
+  </si>
+  <si>
+    <t>22.23</t>
+  </si>
+  <si>
     <t>23.90</t>
   </si>
   <si>
-    <t>22.23</t>
+    <t>22.83</t>
   </si>
   <si>
     <t>20.15</t>
   </si>
   <si>
-    <t>23.71</t>
-  </si>
-  <si>
-    <t>22.83</t>
-  </si>
-  <si>
     <t>2.58</t>
   </si>
   <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
     <t>1.13</t>
   </si>
   <si>
-    <t>1.46</t>
+    <t>0.78</t>
   </si>
   <si>
     <t>0.39</t>
   </si>
   <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>0.78</t>
+    <t>0.1406</t>
+  </si>
+  <si>
+    <t>0.1341</t>
+  </si>
+  <si>
+    <t>0.0860</t>
+  </si>
+  <si>
+    <t>0.0602</t>
+  </si>
+  <si>
+    <t>0.0581</t>
+  </si>
+  <si>
+    <t>0.0427</t>
+  </si>
+  <si>
+    <t>0.0356</t>
+  </si>
+  <si>
+    <t>0.0301</t>
+  </si>
+  <si>
+    <t>0.0271</t>
+  </si>
+  <si>
+    <t>0.0092</t>
   </si>
 </sst>
 </file>
@@ -482,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,205 +570,271 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.87</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.47</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1596,13 +1661,401 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.87</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.47</v>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2049,13 +2136,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2293,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2304,17 +2305,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2324,14 +2345,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.17</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2340,14 +2383,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.92</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2356,14 +2421,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.87</v>
       </c>
     </row>
     <row r="5">
@@ -2372,14 +2459,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.47</v>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2388,13 +2497,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,433 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华泰柏瑞鼎利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>22.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1406</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001247</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1341</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002456</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商安元灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>22.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0860</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009927</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0602</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002457</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商安元灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>22.23</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0581</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008356</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中加科丰价值精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>22.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0427</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002091</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0356</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000590</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安新活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004011</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞鼎利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>22.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009928</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>23.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -892,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -943,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>217024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>招商安盈债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>36.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.79</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2624</t>
+          <t>0.6533</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -981,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002456</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商安元灵活配置混合A</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>18.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>61.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0826</t>
+          <t>0.3120</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1019,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>014887</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>招商安福1年定期开放债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>17.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.81</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0576</t>
+          <t>0.2605</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1057,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002457</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商安元灵活配置混合C</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>23.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0569</t>
+          <t>0.0462</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1105,26 +801,64 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.81</t>
+          <t>23.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1189,36 +923,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>217024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>招商安盈债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>35.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>61.10</t>
+          <t>20.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3027</t>
+          <t>0.4662</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1227,36 +961,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>217024</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商安盈债券</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.66</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>60.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2799</t>
+          <t>0.3331</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1265,32 +999,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010430</t>
+          <t>014887</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商安阳债券A</t>
+          <t>招商安福1年定期开放债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.23</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.06</t>
+          <t>27.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1695</t>
+          <t>0.2583</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1303,36 +1037,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009031</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信聚和一年定期开放混合A</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.60</t>
+          <t>23.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0532</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1341,36 +1075,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>000195</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>工银瑞信成长收益混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>31.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0396</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1379,36 +1113,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>000196</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>工银瑞信成长收益混合B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>31.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1417,112 +1151,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009032</t>
+          <t>009928</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信聚和一年定期开放混合C</t>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20.60</t>
+          <t>23.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010431</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商安阳债券C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +1630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1993,7 +1651,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2023,36 +1681,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>217024</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商安盈债券</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.05</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>61.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4662</t>
+          <t>0.3027</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2061,36 +1719,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>217024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>招商安盈债券</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>26.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>60.89</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3331</t>
+          <t>0.2799</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2099,32 +1757,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014887</t>
+          <t>010430</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商安福1年定期开放债券</t>
+          <t>招商安阳债券A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>18.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.65</t>
+          <t>20.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2583</t>
+          <t>0.1695</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2137,36 +1795,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>009031</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>工银瑞信聚和一年定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.27</t>
+          <t>20.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0532</t>
+          <t>0.0520</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2175,36 +1833,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000195</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信成长收益混合A</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31.51</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0396</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2213,36 +1871,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000196</t>
+          <t>009928</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信成长收益混合B</t>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>31.51</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2251,36 +1909,112 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>009032</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>工银瑞信聚和一年定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.27</t>
+          <t>20.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2294,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2315,7 +2049,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2345,36 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>217024</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商安盈债券</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.70</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>62.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6533</t>
+          <t>0.2624</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2383,36 +2117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>002456</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>招商安元灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.68</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>61.61</t>
+          <t>21.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3120</t>
+          <t>0.0826</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2421,36 +2155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014887</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商安福1年定期开放债券</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.60</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29.59</t>
+          <t>22.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2605</t>
+          <t>0.0576</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2459,36 +2193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>002457</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>招商安元灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.63</t>
+          <t>21.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0462</t>
+          <t>0.0569</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2507,64 +2241,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23.63</t>
+          <t>22.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012233</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商安盈债券C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2578,128 +2274,432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>004010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008356</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加科丰价值精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.62</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.28</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.47</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -583,6 +600,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1188,7 +1299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1624,7 +1735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2022,7 +2133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2268,7 +2379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000429-粤高速A.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.31</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.28</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.47</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016513</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安嘉债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,7 +1032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +1638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1735,7 +2074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2133,7 +2472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2379,7 +2718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
